--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -537,7 +537,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H2">
         <v>2.043375</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.1418004622083334</v>
+        <v>0.1233812529166667</v>
       </c>
       <c r="R2">
-        <v>1.276204159875</v>
+        <v>1.11043127625</v>
       </c>
       <c r="S2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="T2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H3">
         <v>2.043375</v>
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>9.144328804416668</v>
+        <v>9.144328804416665</v>
       </c>
       <c r="R3">
-        <v>82.29895923975002</v>
+        <v>82.29895923974998</v>
       </c>
       <c r="S3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="T3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H4">
         <v>2.043375</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>1.827732641333333</v>
+        <v>1.811192201833333</v>
       </c>
       <c r="R4">
-        <v>16.449593772</v>
+        <v>16.3007298165</v>
       </c>
       <c r="S4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="T4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6811250000000001</v>
+        <v>0.6811249999999999</v>
       </c>
       <c r="H5">
         <v>2.043375</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.033266145</v>
+        <v>0.01037625825</v>
       </c>
       <c r="R5">
-        <v>0.2993953050000001</v>
+        <v>0.09338632424999999</v>
       </c>
       <c r="S5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="T5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
     </row>
   </sheetData>
